--- a/result/result5.xlsx
+++ b/result/result5.xlsx
@@ -524,7 +524,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ERROR: OpenAI API error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>{"priced_quantity":{"value":1.0,"unit":"each"},"explicitness":"direct","confidence":1.0,"evidence":[{"source":"price_label","text":"price £102.36"}],"notes":""}</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -573,7 +573,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ERROR: OpenAI API error: Error code: 429 - {'error': {'message': 'You exceeded your current quota, please check your plan and billing details. For more information on this error, read the docs: https://platform.openai.com/docs/guides/error-codes/api-errors.', 'type': 'insufficient_quota', 'param': None, 'code': 'insufficient_quota'}}</t>
+          <t>{"priced_quantity":{"value":1.0,"unit":"unit"},"explicitness":"direct","confidence":0.9,"evidence":[{"source":"price_label","text":"price £102.36"}],"notes":"The price is explicitly stated for a single unit of the product."}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
